--- a/data/data_mockup.xlsx
+++ b/data/data_mockup.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noble/Dropbox/1_Research/1_Manuscripts/In_Preparation/beetle_tdt/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2E5955D-3492-B24E-94B8-4ED172E6F5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5228E556-79BF-304C-A15E-655CFDDF7910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24380" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{3CC236F7-10AB-5146-BBE4-865E8B1BAFE2}"/>
+    <workbookView xWindow="32600" yWindow="2800" windowWidth="28040" windowHeight="17440" xr2:uid="{3CC236F7-10AB-5146-BBE4-865E8B1BAFE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -448,7 +448,7 @@
   <dimension ref="A1:M121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="H3" sqref="H3:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -527,19 +527,19 @@
         <v>34</v>
       </c>
       <c r="H3" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I3" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J3" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K3" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L3" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -559,19 +559,19 @@
         <v>37</v>
       </c>
       <c r="H4" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I4" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J4" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K4" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L4" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -591,19 +591,19 @@
         <v>40</v>
       </c>
       <c r="H5" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I5" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J5" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K5" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L5" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -623,19 +623,19 @@
         <v>43</v>
       </c>
       <c r="H6" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I6" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J6" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K6" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L6" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -655,19 +655,19 @@
         <v>47</v>
       </c>
       <c r="H7" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I7" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J7" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K7" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L7" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -687,19 +687,19 @@
         <v>50</v>
       </c>
       <c r="H8" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I8" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J8" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K8" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L8" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -717,27 +717,27 @@
       </c>
       <c r="H9" s="1">
         <f>SUM(H3:H8)</f>
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" ref="I9:L9" si="0">SUM(I3:I8)</f>
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="M9" s="1">
         <f>SUM(H9:L9)</f>
-        <v>900</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
